--- a/InputData/trans/EVCLC/EV Charger Labor Cost.xlsx
+++ b/InputData/trans/EVCLC/EV Charger Labor Cost.xlsx
@@ -1,60 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipA\InputData\trans\EVCLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Nextcloud\EPS_Transport\Murielle\EVCLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167583FD-C580-422C-B452-53306D580B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="10170"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="EVCLC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>https://afdc.energy.gov/files/u/publication/evse_cost_report_2015.pdf</t>
-  </si>
-  <si>
-    <t>Costs Associated With Non-Residential Electric Vehicle Supply Equipment</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>We take a simple average of the costs of Fast DC and Level 2</t>
-  </si>
-  <si>
-    <t>chargers, as we don't have a breakdown of the types being</t>
-  </si>
-  <si>
-    <t>added.  (Added chargers in the EPS are not Level 1 chargers,</t>
-  </si>
-  <si>
-    <t>but are a mix of Level 2 and better chargers.)</t>
-  </si>
-  <si>
     <t>We take the cost of the charger equipment itself to be</t>
   </si>
   <si>
@@ -67,59 +53,196 @@
     <t>associated with installation (e.g. purchasing wires,</t>
   </si>
   <si>
-    <t>electrical conduits, etc.).</t>
-  </si>
-  <si>
     <t>Cap Cost</t>
   </si>
   <si>
     <t>EV Charger</t>
   </si>
   <si>
-    <t>EVSE Type</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t>DCFC</t>
-  </si>
-  <si>
     <t>Currency Conversion</t>
   </si>
   <si>
-    <t>We assume the costs given in this Nov 2015 document</t>
-  </si>
-  <si>
-    <t>are in 2015 dollars.  We convert to 2012 dollars via:</t>
-  </si>
-  <si>
     <t>EVCLC Electric Vehicle Charger Labor Cost</t>
   </si>
   <si>
-    <t>Page 17, Table 2</t>
-  </si>
-  <si>
-    <t>Avg. installation cost</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>These costs do not include the cost of the EVSE unit.</t>
-  </si>
-  <si>
     <t>(EVSE unit costs are in variable trans/EVCCC.)</t>
+  </si>
+  <si>
+    <t>Rapid charging</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>Clean Power for Transport Infrastructure Deployment - Final Report</t>
+  </si>
+  <si>
+    <t>https://op.europa.eu/en/publication-detail/-/publication/1533ba56-094e-11e7-8a35-01aa75ed71a1/language-en</t>
+  </si>
+  <si>
+    <t>Pages 149 - 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Added chargers in the EPS are not Level 1 chargers, but are a </t>
+  </si>
+  <si>
+    <t>mix of Level 2 and better chargers.)</t>
+  </si>
+  <si>
+    <t>Power output</t>
+  </si>
+  <si>
+    <t>AC Mode 2 commercial</t>
+  </si>
+  <si>
+    <t>&lt;19.4 kW</t>
+  </si>
+  <si>
+    <t>AC Mode 3 fast charging</t>
+  </si>
+  <si>
+    <t>22kW or 43 kW</t>
+  </si>
+  <si>
+    <t>DCFC (standard)</t>
+  </si>
+  <si>
+    <t>20-50 kW</t>
+  </si>
+  <si>
+    <t>DC high power fast charging</t>
+  </si>
+  <si>
+    <t>100-400 kW</t>
+  </si>
+  <si>
+    <t>We consider the charging stations to be installed on brownfield sites, e.g. on existing and mostly equipped locations.</t>
+  </si>
+  <si>
+    <t>Costs for greenfield sites are very much higher.</t>
+  </si>
+  <si>
+    <t>Civil costs</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Total labor costs</t>
+  </si>
+  <si>
+    <t>Grid connection</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Total average</t>
+  </si>
+  <si>
+    <t>These costs do not include the cost of the EVSE unit. They include civil costs, grid connection and installation costs.</t>
+  </si>
+  <si>
+    <t>https://www.camecon.com/wp-content/uploads/2018/02/Fuelling-Europes-Future-2018-v1.0.pdf</t>
+  </si>
+  <si>
+    <t>AC normal public charging</t>
+  </si>
+  <si>
+    <t>Page 44, Table 4.1</t>
+  </si>
+  <si>
+    <t>Cambridge Econometrics</t>
+  </si>
+  <si>
+    <t>Low-carbon cars in Europe: A socio-economic assessment - Final report</t>
+  </si>
+  <si>
+    <t>Average labor cost ($2012)</t>
+  </si>
+  <si>
+    <t>We convert to 2012 dollars via:</t>
+  </si>
+  <si>
+    <t>€2018 to $2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from Cambridge Econometrics are in 2018 Euros. </t>
+  </si>
+  <si>
+    <t>We assume the costs given in the 2018 document</t>
+  </si>
+  <si>
+    <t>The report from the EC is in 2015 euros.</t>
+  </si>
+  <si>
+    <t>€2015 to $2012</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>€2018</t>
+  </si>
+  <si>
+    <t>€2015</t>
+  </si>
+  <si>
+    <t>Convert to $2012</t>
+  </si>
+  <si>
+    <t>Labor costs</t>
+  </si>
+  <si>
+    <t>https://www.transportenvironment.org/sites/te/files/publications/01%202020%20Draft%20TE%20Infrastructure%20Report%20Final.pdf</t>
+  </si>
+  <si>
+    <t>Share of charging stations</t>
+  </si>
+  <si>
+    <t>Page 15</t>
+  </si>
+  <si>
+    <t>with the share of charger types currently installed, that we assume will stay roughly the same in future.</t>
+  </si>
+  <si>
+    <t>Recharge EU: How many charge points will EU countries need by 2030</t>
+  </si>
+  <si>
+    <t>Share of installed charge points in EU in 2019</t>
+  </si>
+  <si>
+    <t>As the very quick charging technology is relatively new, we assume their</t>
+  </si>
+  <si>
+    <t>installation will skightly increase: we increased the share of this category to reach 100%.</t>
+  </si>
+  <si>
+    <t>&lt;-- the report states 0,5%, but then the sum does not equal to 100%.</t>
+  </si>
+  <si>
+    <t>Transport &amp; Environment</t>
+  </si>
+  <si>
+    <t>electrical conduits, etc.). We ignore additional grid reinforcement costs.</t>
+  </si>
+  <si>
+    <t>We take a weighted-average cost of Fast DC and AC chargers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +266,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,12 +307,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -176,10 +342,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Komma 2" xfId="4" xr:uid="{485F3CA3-E81C-4139-B5DC-28171328E2B3}"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="5" xr:uid="{240A2650-6D5A-48E1-B769-BEF9A88891AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,194 +645,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.9686815713640794</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>1.202475839602885</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{BD4F2188-D443-4337-820A-62619FD27FB1}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{A92D23DF-16EB-42C0-8686-599D8E6A9FC2}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{E66FCAE0-5E34-4D12-BDAE-D127A41F1C2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>SUM(C3:F3)</f>
+        <v>5000</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(C4:F4)</f>
+        <v>5000</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="12">
+        <v>61000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(C5+D5)/2+E5+F5</f>
+        <v>48000</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>61000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="12">
+        <f>(C6+D6)/2+E6+F6</f>
+        <v>48000</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="12">
+        <f>G3*About!A$43</f>
+        <v>6012.3791980144251</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12">
+        <f>G4*About!A$43</f>
+        <v>6012.3791980144251</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12">
+        <f>G5*About!A$42</f>
+        <v>59520</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="12">
+        <f>G6*About!A$42</f>
+        <v>59520</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="19">
+        <f>SUM(C10:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13">
+        <f>SUMPRODUCT(B10:B13,C10:C13)</f>
+        <v>9222.8364461335605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -651,16 +1167,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
-        <f>AVERAGE(Data!B3:B4)*About!A24</f>
-        <v>11624.178856368953</v>
+        <f>Data!B16</f>
+        <v>9222.8364461335605</v>
       </c>
     </row>
   </sheetData>
